--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
         <v>0.1145198029491339</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3529513447882143</v>
+        <v>0.3529513447882122</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -573,41 +573,41 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.417029310190594</v>
+        <v>7.41702911902915</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1682368163741204</v>
+        <v>0.1681807497955492</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1725952742243414</v>
+        <v>0.1746351800152288</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[204, 1254]</t>
+          <t>[212, 1254]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>5.496501829857236</v>
+        <v>5.496502825007503</v>
       </c>
       <c r="K3" t="n">
-        <v>7.417029310190594</v>
+        <v>7.41702911902915</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>9.783471076026283</v>
+        <v>9.783470789961299</v>
       </c>
       <c r="O3" t="n">
-        <v>3.662031030752913</v>
+        <v>3.662030965036696</v>
       </c>
       <c r="P3" t="n">
-        <v>8.837248783258785</v>
+        <v>8.837248958899222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.940517122699353</v>
+        <v>2.885581742261759</v>
       </c>
     </row>
     <row r="4">
@@ -669,7 +669,7 @@
         <v>0.1175901578595546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3736367017074119</v>
+        <v>0.3736367017074116</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -707,14 +707,14 @@
         <v>2.419058980159078</v>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>0.0815779616733624</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2533349403177265</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[1, 1364]</t>
+          <t>[1167, 200]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -751,7 +751,7 @@
         <v>0.34387912478213</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1308852016332517</v>
+        <v>0.1308852016332516</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>0.1687231543312788</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1559189055769076</v>
+        <v>0.1559189055769061</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>0.07403383392356711</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12777117541544</v>
+        <v>0.1277711754154402</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         <v>0.1336197727212167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2069637459816137</v>
+        <v>0.2069637459816142</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -909,17 +909,17 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.774817961538287</v>
+        <v>1.771812988833067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09759891890301808</v>
+        <v>0.09664856548785017</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07889506164600271</v>
+        <v>0.1396549991477578</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[312, 930]</t>
+          <t>[438, 828]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -930,10 +930,10 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>5.573992502919992</v>
+        <v>5.57399223990465</v>
       </c>
       <c r="O11" t="n">
-        <v>1.774817961538287</v>
+        <v>1.771812988833067</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -956,11 +956,11 @@
         <v>0.08421958430735321</v>
       </c>
       <c r="E12" t="n">
-        <v>0.187654360648952</v>
+        <v>0.1920704182009964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[786, 473]</t>
+          <t>[785, 474]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -997,7 +997,7 @@
         <v>0.1392380507620669</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2487186892341903</v>
+        <v>0.2487186892341928</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>0.182101154243261</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3197014360661732</v>
+        <v>0.3197014360661747</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>0.2382130983392607</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2768192566001701</v>
+        <v>0.2768192566001677</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1114,17 +1114,17 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5.835802360443997</v>
+        <v>7.138644663082329</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1725741261866467</v>
+        <v>0.1725742454658807</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2010007335119422</v>
+        <v>0.1946468320786645</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[362, 2434]</t>
+          <t>[348, 2467]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1135,13 +1135,1959 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>13.38150560267559</v>
+        <v>11.10101924052782</v>
       </c>
       <c r="O16" t="n">
-        <v>5.835802360443997</v>
+        <v>7.138644663082329</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>IGF1R</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>12.20351613220156</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1860835596558762</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4506390645884335</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[492, 1782]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.799317102319502</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.20351613220156</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>13.69112442843606</v>
+      </c>
+      <c r="O17" t="n">
+        <v>11.11863190135656</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6.799317102319502</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.006531939191311</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>INSR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12.56666060243079</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8542761961958532</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.435216913392952</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[664, 1661]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>7.935010474376605</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.56666060243079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.49483712778443</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.066130762008369</v>
+      </c>
+      <c r="N18" t="n">
+        <v>14.5947060527434</v>
+      </c>
+      <c r="O18" t="n">
+        <v>10.98677543493694</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9.066130762008369</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.830909579192614</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>AKT2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2.669293905415314</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.696730264087821</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4244648948789636</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[509, 1688]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2.669293905415314</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.669293905415314</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.842161270754992</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6.986650226251962</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.669293905415314</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.444464329577189</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8.824389464369133</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4.559429772692784</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>cheY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.034404335123263</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.08324925145851003</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2685460150023701</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[697, 282]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>2.730858552969637</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.034404335123263</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>dctD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3.13578752819287</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05945078438966173</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2369497721968044</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[486, 584]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>8.642964399945495</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3.13578752819287</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>fixJ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3.386018719754916</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.09174884455915661</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1852647656223315</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[479, 434]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>4.534830124094175</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.386018719754916</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>spoIIAA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2.663264671226149</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2480914477967741</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4348290627855189</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[594, 282]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>2.905427208935376</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.663264671226149</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>araC</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.356665686624843</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3183872426435199</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7083335565049552</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[1181, 1196]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>3.294618110079197</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.356665686624843</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>argR</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>homohexamer</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.327928492868212</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5530354436245588</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0840985725283582</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[1630, 1576]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>6.505076590479002</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.327928492868212</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>birA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.358260343363993</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3864857414190328</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3982097597968282</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[509, 1671]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>1.918698122704066</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.358260343363993</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>lacI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.26995179015548</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5839724156199049</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6712040391719383</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[1995, 2040]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>14.47336759460629</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.26995179015548</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>metJ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.675077955088965</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4045230300109479</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1308475411930752</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[1338, 352]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1.675077955088965</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.675077955088965</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.214059191016098</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.83486969516815</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.62566901836893</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.819380354238211</v>
+      </c>
+      <c r="P28" t="n">
+        <v>16.27707931338714</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4.801267093359167</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>oxyR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.199607869207697</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4722060221898174</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2106987114966072</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[679, 937]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>1.308109846523681</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.199607869207697</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>purR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3.193352705984745</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9149992595159229</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.69174967283557</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[941, 3379]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>5.012823505128655</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3.193352705984745</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Rab7a</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0.004771813621059939</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1337250310399205</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[255, 1059]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>tetR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6.061258886163995</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.3568848001584334</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5501603143898328</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[391, 2691]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2.138045990619955</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.061258886163995</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.137591610090619</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.660156407474884</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6.185816305488277</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.218647092261211</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5.873192807148961</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.710840625294475</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>trpE_trpG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>heterotetramer</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4.672147595839538</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9471475226145838</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8665944489818839</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[5425, 5425]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2.723224135046138</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.672147595839538</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.005846494555305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3.954705388464225</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.672147595839538</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.756314798983763</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8.446828744079925</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.733632354801288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>pyrB_pyrI_a</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>heterododecamer</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5.285150367622103</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.241836881484184</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.705384332787225</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[8496, 13158]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>2.482661818216313</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.285150367622103</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.286109373960872</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.594487502282896</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.154296053597905</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3.032278852916116</v>
+      </c>
+      <c r="P34" t="n">
+        <v>13.4324381192913</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.680410802394979</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>pyrB_pyrI_b</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>heterododecamer</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2.51094098215162</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.325488571308538</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7900364819281538</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[8508, 12810]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1.679510613027684</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.51094098215162</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.950651679870806</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11.50273986946978</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.138253508522077</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.589409267256445</v>
+      </c>
+      <c r="P35" t="n">
+        <v>11.50305947903556</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.259914158941039</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>pyrB_pyrI_c</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>heterododecamer</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2.799630164159205</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.375821475026215</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.7877863445330723</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[8520, 12798]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
+        <v>6.39706888085755</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.799630164159205</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>met3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>homohexamer</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2.697850307380289</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.746942540227192</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3127712603916539</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[11768, 14998]</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.160653499592005</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9144177480429477</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[2843, 3041, 2843, 3041, 3038, 3038, 3041, 3041, 2840]</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1.406209702379444</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.697850307380289</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.917674632955066</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4.614730217363793</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.271307708392264</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.9770774777449166</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5.416987484884977</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.843200767798731</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>hisG</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.521250209124741</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.879401296476406</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5035276910910889</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[2073, 2073]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>3.006589612934753</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.521250209124741</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>CASP7</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4.718641760890751</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1107383124126136</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1616405175686782</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[784, 831]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>4.332883552352568</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.718641760890751</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
+        <v>15.41685417327764</v>
+      </c>
+      <c r="O39" t="n">
+        <v>7.000994435347828</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.794851238149697</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.346029703029334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ARO7</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2.013438059152466</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.728033135869457</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6559441823605957</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[2009, 2013]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
+        <v>3.543735132055001</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2.013438059152466</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>aroG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3.173206204543561</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7251474786992013</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.4799101688315304</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[2546, 2664]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2.408459553387117</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.173206204543561</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2.262516332051703</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.721165345861047</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.173206204543561</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.673321102889374</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5.707817960260762</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.86002708511461</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>FBP1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>homotetramer</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3.981843650699431</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.772818546467426</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5484764764410763</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[5018, 4966]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.437499216531822</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.981843650699431</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.489770159419993</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.771252353076517</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.981844435123502</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2.994939801039894</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4.625226157472343</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.425237089164704</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>nagB</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>homohexamer</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1.867396144837199</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6327934098794767</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.448624489765634</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[2077, 10475]</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4896830897517749</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9435384743074245</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[2064, 2145, 2064, 2077, 2123, 2079]</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1.867396144837199</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.867396144837199</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.996525019553685</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.996723688024939</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4.431799220544517</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.662130202836326</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.829902205317768</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.297310011451601</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>PYGM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>homodimer</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4.281010525160862</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9723172687434831</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.797618646630307</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[6625, 6613]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.516254391967282</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.281010525160862</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.428440440377944</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.022275231184933</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7.520222146718511</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.554616290673173</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.969087811974063</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.266095106953879</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Gch1_Gchfr</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>heteroicosamer</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2.600170219013451</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.219391744769757</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2926562450231635</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[3389, 18671]</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.012260352219696</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.3764305068882168</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[15279, 3389, 3392]</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>2.567839029544026</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.600170219013451</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.502326927060528</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.55489055652974</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.928220792396512</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.288677998756181</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4.118255687399515</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.403173714269443</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>HBA1_HBB_a</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>heterotetramer</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.331969898581462</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.55351482811301</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8201113357735821</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[2193, 2191]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1.245914748480317</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.331969898581462</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>2.931868112057859</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.30310972501794</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>HBA1_HBB_b</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>heterotetramer</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.251707970983732</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.029876185823732</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8086282737669858</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[2252, 2264]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.180888140960433</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.251707970983732</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="n">
+        <v>1.423112584002978</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.9187412407562856</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>ME2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>homotetramer</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.926255001041346</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.524411824351211</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4102785450485867</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[8696, 8672]</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3530847857345073</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.746774436077843</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[4291, 4325, 4371, 4381]</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1.632276294790293</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.926255001041346</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.873646138502225</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4.2092496819945</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4.20667876052297</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.981978064234608</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.123064759562298</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.110647000329798</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>pfkA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>homotetramer</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3.631569028304476</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.962491988682733</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.706787104712112</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[4710, 4669]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>3.631569028304476</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.631569028304476</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.587522683286071</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5.487024854379208</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.725363251055931</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.956401476136875</v>
+      </c>
+      <c r="P49" t="n">
+        <v>11.49847220048378</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.366323923996817</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>serA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>homotetramer</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2.007210397495122</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.580120069284594</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.4682955900150411</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[2853, 9399]</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0.4521780805868245</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9151255529063053</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[2871, 3259, 2853, 3269]</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1.267024106056803</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.007210397495122</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.246842666411922</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.568197764443692</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4.726054035144844</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.877659088499993</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4.250129814273659</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.36854529336579</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>PTPN1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>3.20565562471979</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.1423719912784907</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.2517780541599369</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[1034, 1347]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2.647629005374085</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.20565562471979</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.094428618516904</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.138247432208573</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.828953854471878</v>
+      </c>
+      <c r="O51" t="n">
+        <v>5.002126088892213</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4.63198208926056</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.251026116046449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>upp</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>homotetramer</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3.391117808812248</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6543297605879526</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7436399516455151</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[3334, 3340]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.151945570445014</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.391117808812248</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.065426850584945</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6.053231316260345</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6.460384013560369</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2.422077854401505</v>
+      </c>
+      <c r="P52" t="n">
+        <v>6.053231316260345</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.448768252301283</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>GCK_a</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>6.62431227356535</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5.298293351653129</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8976627136367177</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[796, 2482]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6.555249652687261</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6.62431227356535</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>12.38341897910185</v>
+      </c>
+      <c r="O53" t="n">
+        <v>5.470670141817694</v>
+      </c>
+      <c r="P53" t="n">
+        <v>6.555249652687261</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.8767812606613</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>GCK_b</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>13.15705569476629</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.983654331724565</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.8804364434719952</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[883, 2440]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.10428575142669</v>
+      </c>
+      <c r="K54" t="n">
+        <v>13.15705569476629</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>13.15705569476629</v>
+      </c>
+      <c r="O54" t="n">
+        <v>6.648588271745088</v>
+      </c>
+      <c r="P54" t="n">
+        <v>21.53858702282589</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>12.62591432864553</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>DHFR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>monomer</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6.731672887246228</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.1399952669301779</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3396301938763197</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[1034, 234]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.731672887246228</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6.731672887246228</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>6.731672887246228</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2.461029081743094</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7.369123754779014</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.656733019453344</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>groEL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>monoseptamer</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1.99904032153934</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5772584194292754</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.3105638470822453</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[22023, 1558]</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0.4396657033656672</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.603518299978286</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[13684, 6733, 1606, 1558]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
+        <v>8.049324927931625</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.99904032153934</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
